--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\AIpaca\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB6B67-ABCB-463E-A58E-1277B8335C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="ko_AchieveList" sheetId="4" r:id="rId1"/>
+    <sheet name="en_AchieveList" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>korean</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>japanese</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>acv_0001</t>
   </si>
@@ -50,12 +45,9 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -64,7 +56,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -73,7 +65,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -82,7 +74,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -91,7 +83,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -115,12 +107,9 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -129,7 +118,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -138,7 +127,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -147,7 +136,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -156,7 +145,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -165,7 +154,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -180,12 +169,9 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -194,7 +180,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -203,7 +189,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -212,7 +198,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -221,7 +207,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -230,7 +216,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -239,7 +225,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -254,12 +240,9 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -268,7 +251,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -277,7 +260,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -286,7 +269,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -295,7 +278,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -304,7 +287,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -313,7 +296,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -322,7 +305,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -346,12 +329,9 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -360,7 +340,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -369,7 +349,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -378,7 +358,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -387,7 +367,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -396,7 +376,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -405,7 +385,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -414,7 +394,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -423,7 +403,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -432,7 +412,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -441,7 +421,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -450,7 +430,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -459,7 +439,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
@@ -468,7 +448,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF3b3b3b"/>
+        <color rgb="FF3B3B3B"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
@@ -612,18 +592,41 @@
   </si>
   <si>
     <t>Activate Hidden mode on application.</t>
+  </si>
+  <si>
+    <t>AchieveId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AchieveName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AchieveDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AchieveFixDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAvailable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acv_0012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -635,9 +638,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3b3b3b"/>
+      <color rgb="FF3B3B3B"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -667,29 +683,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -700,10 +732,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -741,71 +773,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,7 +865,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -856,11 +888,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -869,13 +901,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -885,7 +917,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -894,7 +926,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -903,7 +935,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -911,10 +943,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -979,325 +1011,984 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43607B4-E650-44D0-A86D-02354094F50F}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.625" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E22" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E24" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45377</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45377</v>
+      </c>
+      <c r="E25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A74352-A2C9-4163-89C9-9D137E193057}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.625" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D2" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E2" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D3" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D5" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E5" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D7" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D10" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D11" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D12" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D13" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D14" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D15" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D16" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D17" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D18" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D19" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D20" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D21" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D22" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
-      <c r="A22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D23" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E23" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
-      <c r="A23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D24" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
-      <c r="A24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21">
-      <c r="A25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="3"/>
+      <c r="C25" s="9">
+        <v>45377</v>
+      </c>
+      <c r="D25" s="9">
+        <v>45377</v>
+      </c>
+      <c r="E25" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L26" s="1"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L27" s="1"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L28" s="1"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L29" s="1"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L30" s="1"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>